--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42030.88892901778</v>
+        <v>-44469.36202876375</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>274.6904425403162</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>167.6045614134455</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>5.941760599765871</v>
+        <v>90.1670690534267</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.69557483915496</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>168.1742963765279</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>288.1013941305592</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>34.86296951216337</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.23279505277115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>90.55657477651027</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>52.33551640890152</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>93.0627304638881</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991755</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>139.368773976749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.7063133373728</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.29550035394</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>41.02686156550273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>133.7457933526561</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>142.3575218158259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>100.9410961977583</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>97.98413062224057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>144.8592102470453</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.809312455372</v>
+        <v>1036.670355966689</v>
       </c>
       <c r="C2" t="n">
-        <v>1175.344218980305</v>
+        <v>1036.670355966689</v>
       </c>
       <c r="D2" t="n">
-        <v>817.078520373555</v>
+        <v>1036.670355966689</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>650.882103368445</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>650.882103368445</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>235.8096532134415</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3209.313374752664</v>
+        <v>3124.237305607551</v>
       </c>
       <c r="U2" t="n">
-        <v>2955.7828980265</v>
+        <v>2870.706828881388</v>
       </c>
       <c r="V2" t="n">
-        <v>2955.7828980265</v>
+        <v>2539.643941537817</v>
       </c>
       <c r="W2" t="n">
-        <v>2603.014242756386</v>
+        <v>2186.875286267702</v>
       </c>
       <c r="X2" t="n">
-        <v>2229.548484495306</v>
+        <v>1813.409528006623</v>
       </c>
       <c r="Y2" t="n">
-        <v>1839.409152519494</v>
+        <v>1423.270196030811</v>
       </c>
     </row>
     <row r="3">
@@ -4389,7 +4389,7 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
@@ -4398,16 +4398,16 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4425,10 +4425,10 @@
         <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201686</v>
@@ -4443,7 +4443,7 @@
         <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3065.90233772374</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>2844.135722293267</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>2555.03285541891</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>2300.348367213023</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>2010.931197176063</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319821</v>
+        <v>1782.941646278045</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.894418388452</v>
+        <v>1562.149067134515</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.766690866871</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.804173926459</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>821.5384753197088</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>821.5384753197088</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>410.5525705301013</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>399.5205244155018</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>3084.412953274035</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906804</v>
+        <v>2710.947195012955</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930993</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>692.0385327017424</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>523.1023497738355</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>372.9857103614997</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1355.034509387922</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>873.6869975319821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>161.3731731815041</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738584</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459515</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336157</v>
+        <v>453.6220087565674</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512226</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533123</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845646</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040981</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851784</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851784</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.684541140056</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2330.088019603117</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="T16" t="n">
-        <v>2110.486554626058</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
         <v>555.8158034133954</v>
@@ -5662,61 +5662,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>768.5380889459564</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>452.7119585201391</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.981115722978</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1170.979132919726</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>950.1865537761961</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>651.5752442188632</v>
       </c>
       <c r="E25" t="n">
-        <v>274.8772357154528</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>274.8772357154528</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.063419261731</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>127.003202973875</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>197.9762095398543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>21.59472895491399</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.402303949491753e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922677</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.00954930701832</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>146.8157004124952</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>65.3199726642718</v>
+        <v>115.352746708873</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.31997266427236</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>31.77834493961274</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.8269525734183</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>45.49286644881084</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>67.54000767002827</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>107.2784330767827</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1100016.956986718</v>
+        <v>1100016.956986717</v>
       </c>
     </row>
     <row r="8">
@@ -26317,34 +26317,34 @@
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="H2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="I2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="J2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="K2" t="n">
         <v>322858.6398760026</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760024</v>
-      </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.18331047952</v>
+        <v>47799.18331047964</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179352</v>
@@ -26433,16 +26433,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179347</v>
@@ -26451,10 +26451,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1185884.103819996</v>
+        <v>-1186070.497208535</v>
       </c>
       <c r="C6" t="n">
-        <v>130128.7003611749</v>
+        <v>130128.7003611753</v>
       </c>
       <c r="D6" t="n">
         <v>130128.7003611752</v>
       </c>
       <c r="E6" t="n">
-        <v>-114843.3840070536</v>
+        <v>-114878.1219324889</v>
       </c>
       <c r="F6" t="n">
-        <v>210569.0778003021</v>
+        <v>210534.339874866</v>
       </c>
       <c r="G6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="H6" t="n">
-        <v>210569.077800302</v>
+        <v>210534.339874866</v>
       </c>
       <c r="I6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="J6" t="n">
-        <v>-6962.124596975627</v>
+        <v>-6996.862522411364</v>
       </c>
       <c r="K6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="L6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748662</v>
       </c>
       <c r="M6" t="n">
-        <v>125514.04986479</v>
+        <v>125479.3119393545</v>
       </c>
       <c r="N6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="O6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="P6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748662</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,31 +26960,31 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.5824492306914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>113.7509010861934</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.1364053427823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>6.506370256761215</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>216.1322024467386</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.201167593798</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>161.5810685473177</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>358.5862092445519</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923757</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53.37123218268107</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911067</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29752,52 +29752,52 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>-1.750640694000166e-13</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394538</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
